--- a/biology/Zoologie/Eristalinus_megacephalus/Eristalinus_megacephalus.xlsx
+++ b/biology/Zoologie/Eristalinus_megacephalus/Eristalinus_megacephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eristalinus megacephalus est une espèce d'insectes diptères brachycères de la famille des Syrphidae, de la  sous-famille des Eristalinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 décembre 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 décembre 2014) :
 Eristalis fasciatus Germar, 1844 ;
 Eristalis fasciatus Meigen, 1835 ;
 Eristalis laetus Wiedemann, 1830 ;
@@ -550,9 +564,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition d'Eristalinus megacephalus comprend certains pays d'Afrique (dont le Kenya, le Maroc, le Bénin, l'Afrique du Sud), d'Europe du Sud (dont la France et l'Espagne) et d'Asie (Chine, Inde, Malaisie,...). En France, on la trouve dans la région méditerranéenne[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition d'Eristalinus megacephalus comprend certains pays d'Afrique (dont le Kenya, le Maroc, le Bénin, l'Afrique du Sud), d'Europe du Sud (dont la France et l'Espagne) et d'Asie (Chine, Inde, Malaisie,...). En France, on la trouve dans la région méditerranéenne. 
 </t>
         </is>
       </c>
